--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ntf3-Ngfr.xlsx
@@ -531,22 +531,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.477828666666666</v>
+        <v>5.305917</v>
       </c>
       <c r="H2">
-        <v>13.433486</v>
+        <v>15.917751</v>
       </c>
       <c r="I2">
-        <v>0.4652827882180238</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="J2">
-        <v>0.4652827882180237</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6946429999999998</v>
+        <v>0.6946430000000001</v>
       </c>
       <c r="N2">
-        <v>2.083928999999999</v>
+        <v>2.083929</v>
       </c>
       <c r="O2">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="P2">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="Q2">
-        <v>3.110492338499332</v>
+        <v>3.685718102631001</v>
       </c>
       <c r="R2">
-        <v>27.99443104649399</v>
+        <v>33.171462923679</v>
       </c>
       <c r="S2">
-        <v>0.05906298511763257</v>
+        <v>0.04945162214137322</v>
       </c>
       <c r="T2">
-        <v>0.05906298511763258</v>
+        <v>0.04945162214137321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.477828666666666</v>
+        <v>5.305917</v>
       </c>
       <c r="H3">
-        <v>13.433486</v>
+        <v>15.917751</v>
       </c>
       <c r="I3">
-        <v>0.4652827882180238</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="J3">
-        <v>0.4652827882180237</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.727146666666667</v>
+        <v>5.373609333333333</v>
       </c>
       <c r="N3">
-        <v>14.18144</v>
+        <v>16.120828</v>
       </c>
       <c r="O3">
-        <v>0.8638449905336953</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="P3">
-        <v>0.8638449905336955</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="Q3">
-        <v>21.16735285553778</v>
+        <v>28.511925113092</v>
       </c>
       <c r="R3">
-        <v>190.50617569984</v>
+        <v>256.607326017828</v>
       </c>
       <c r="S3">
-        <v>0.4019322057836901</v>
+        <v>0.3825471476533362</v>
       </c>
       <c r="T3">
-        <v>0.4019322057836901</v>
+        <v>0.3825471476533361</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.477828666666666</v>
+        <v>5.305917</v>
       </c>
       <c r="H4">
-        <v>13.433486</v>
+        <v>15.917751</v>
       </c>
       <c r="I4">
-        <v>0.4652827882180238</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="J4">
-        <v>0.4652827882180237</v>
+        <v>0.4336744870332215</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05042666666666667</v>
+        <v>0.02353866666666667</v>
       </c>
       <c r="N4">
-        <v>0.15128</v>
+        <v>0.070616</v>
       </c>
       <c r="O4">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="P4">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="Q4">
-        <v>0.2258019735644445</v>
+        <v>0.124894211624</v>
       </c>
       <c r="R4">
-        <v>2.03221776208</v>
+        <v>1.124047904616</v>
       </c>
       <c r="S4">
-        <v>0.004287597316701029</v>
+        <v>0.001675717238512066</v>
       </c>
       <c r="T4">
-        <v>0.004287597316701029</v>
+        <v>0.001675717238512066</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>7.585691000000001</v>
       </c>
       <c r="I5">
-        <v>0.2627383137214249</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="J5">
-        <v>0.2627383137214249</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6946429999999998</v>
+        <v>0.6946430000000001</v>
       </c>
       <c r="N5">
-        <v>2.083928999999999</v>
+        <v>2.083929</v>
       </c>
       <c r="O5">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="P5">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="Q5">
-        <v>1.756449051104333</v>
+        <v>1.756449051104334</v>
       </c>
       <c r="R5">
         <v>15.808041459939</v>
       </c>
       <c r="S5">
-        <v>0.03335199475697964</v>
+        <v>0.02356644007141559</v>
       </c>
       <c r="T5">
-        <v>0.03335199475697964</v>
+        <v>0.02356644007141559</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>7.585691000000001</v>
       </c>
       <c r="I6">
-        <v>0.2627383137214249</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="J6">
-        <v>0.2627383137214249</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.727146666666667</v>
+        <v>5.373609333333333</v>
       </c>
       <c r="N6">
-        <v>14.18144</v>
+        <v>16.120828</v>
       </c>
       <c r="O6">
-        <v>0.8638449905336953</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="P6">
-        <v>0.8638449905336955</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="Q6">
-        <v>11.95289130833778</v>
+        <v>13.58751331912756</v>
       </c>
       <c r="R6">
-        <v>107.57602177504</v>
+        <v>122.287619872148</v>
       </c>
       <c r="S6">
-        <v>0.2269651761295234</v>
+        <v>0.1823049283174227</v>
       </c>
       <c r="T6">
-        <v>0.2269651761295234</v>
+        <v>0.1823049283174227</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>7.585691000000001</v>
       </c>
       <c r="I7">
-        <v>0.2627383137214249</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="J7">
-        <v>0.2627383137214249</v>
+        <v>0.2066699405724794</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05042666666666667</v>
+        <v>0.02353866666666667</v>
       </c>
       <c r="N7">
-        <v>0.15128</v>
+        <v>0.070616</v>
       </c>
       <c r="O7">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="P7">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="Q7">
-        <v>0.1275070371644444</v>
+        <v>0.05951901729511112</v>
       </c>
       <c r="R7">
-        <v>1.14756333448</v>
+        <v>0.535671155656</v>
       </c>
       <c r="S7">
-        <v>0.002421142834921862</v>
+        <v>0.0007985721836411331</v>
       </c>
       <c r="T7">
-        <v>0.002421142834921862</v>
+        <v>0.0007985721836411331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.617494</v>
+        <v>4.400310999999999</v>
       </c>
       <c r="H8">
-        <v>7.852482</v>
+        <v>13.200933</v>
       </c>
       <c r="I8">
-        <v>0.2719788980605514</v>
+        <v>0.359655572394299</v>
       </c>
       <c r="J8">
-        <v>0.2719788980605514</v>
+        <v>0.359655572394299</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6946429999999998</v>
+        <v>0.6946430000000001</v>
       </c>
       <c r="N8">
-        <v>2.083928999999999</v>
+        <v>2.083929</v>
       </c>
       <c r="O8">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="P8">
-        <v>0.1269399741689062</v>
+        <v>0.1140293552421611</v>
       </c>
       <c r="Q8">
-        <v>1.818223884642</v>
+        <v>3.056645233973</v>
       </c>
       <c r="R8">
-        <v>16.364014961778</v>
+        <v>27.509807105757</v>
       </c>
       <c r="S8">
-        <v>0.03452499429429395</v>
+        <v>0.04101129302937233</v>
       </c>
       <c r="T8">
-        <v>0.03452499429429395</v>
+        <v>0.04101129302937233</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.617494</v>
+        <v>4.400310999999999</v>
       </c>
       <c r="H9">
-        <v>7.852482</v>
+        <v>13.200933</v>
       </c>
       <c r="I9">
-        <v>0.2719788980605514</v>
+        <v>0.359655572394299</v>
       </c>
       <c r="J9">
-        <v>0.2719788980605514</v>
+        <v>0.359655572394299</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.727146666666667</v>
+        <v>5.373609333333333</v>
       </c>
       <c r="N9">
-        <v>14.18144</v>
+        <v>16.120828</v>
       </c>
       <c r="O9">
-        <v>0.8638449905336953</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="P9">
-        <v>0.8638449905336955</v>
+        <v>0.8821066470161785</v>
       </c>
       <c r="Q9">
-        <v>12.37327803712</v>
+        <v>23.64555225916933</v>
       </c>
       <c r="R9">
-        <v>111.35950233408</v>
+        <v>212.809970332524</v>
       </c>
       <c r="S9">
-        <v>0.2349476086204819</v>
+        <v>0.3172545710454195</v>
       </c>
       <c r="T9">
-        <v>0.2349476086204819</v>
+        <v>0.3172545710454195</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.617494</v>
+        <v>4.400310999999999</v>
       </c>
       <c r="H10">
-        <v>7.852482</v>
+        <v>13.200933</v>
       </c>
       <c r="I10">
-        <v>0.2719788980605514</v>
+        <v>0.359655572394299</v>
       </c>
       <c r="J10">
-        <v>0.2719788980605514</v>
+        <v>0.359655572394299</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,28 +1051,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.05042666666666667</v>
+        <v>0.02353866666666667</v>
       </c>
       <c r="N10">
-        <v>0.15128</v>
+        <v>0.070616</v>
       </c>
       <c r="O10">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="P10">
-        <v>0.009215035297398391</v>
+        <v>0.00386399774166032</v>
       </c>
       <c r="Q10">
-        <v>0.13199149744</v>
+        <v>0.1035774538586667</v>
       </c>
       <c r="R10">
-        <v>1.18792347696</v>
+        <v>0.9321970847279999</v>
       </c>
       <c r="S10">
-        <v>0.0025062951457755</v>
+        <v>0.001389708319507121</v>
       </c>
       <c r="T10">
-        <v>0.0025062951457755</v>
+        <v>0.001389708319507121</v>
       </c>
     </row>
   </sheetData>
